--- a/config/fm_기능정리.xlsx
+++ b/config/fm_기능정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE30632-06DE-4574-A47C-C08FFDB84127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9DB75-28DA-4694-8DC7-9FE732E45231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
+    <workbookView xWindow="10020" yWindow="2856" windowWidth="11208" windowHeight="11736" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,42 @@
   </si>
   <si>
     <t>DELETE 제약조건 개발해야됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelExcport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 Detail Info 에서 select해서 값을 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,14 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB64997-802B-4F61-8ACB-DE64A50AB046}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
     <col min="3" max="3" width="20.8984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -505,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -516,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -527,10 +564,53 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/config/fm_기능정리.xlsx
+++ b/config/fm_기능정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9DB75-28DA-4694-8DC7-9FE732E45231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B42D786-89F5-4AEC-8235-93483DB2675D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2856" windowWidth="11208" windowHeight="11736" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -591,7 +591,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>

--- a/config/fm_기능정리.xlsx
+++ b/config/fm_기능정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B42D786-89F5-4AEC-8235-93483DB2675D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971E39E-0978-4F65-988F-7F651128B757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
+    <workbookView xWindow="11268" yWindow="276" windowWidth="11208" windowHeight="11736" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,42 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting FM_METADATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조인관련 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessFlow Design</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB64997-802B-4F61-8ACB-DE64A50AB046}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -613,6 +649,49 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/fm_기능정리.xlsx
+++ b/config/fm_기능정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971E39E-0978-4F65-988F-7F651128B757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B561E-853F-4ABB-AFF1-B4E5AADB305B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11268" yWindow="276" windowWidth="11208" windowHeight="11736" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -654,7 +654,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">

--- a/config/fm_기능정리.xlsx
+++ b/config/fm_기능정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B561E-853F-4ABB-AFF1-B4E5AADB305B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63968BB1-06FD-4C98-AE9F-D83D7BFD8DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11268" yWindow="276" windowWidth="11208" windowHeight="11736" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,43 +123,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log</t>
+    <t>setting FM_METADATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조인관련 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessFlow Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩토리 모듈러에서 sql 문 삽입 가능하게 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting FM_METADATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조인관련 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스페셜 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessFlow Design</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB64997-802B-4F61-8ACB-DE64A50AB046}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
     <col min="3" max="3" width="20.8984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -646,12 +650,12 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -659,37 +663,45 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/config/fm_기능정리.xlsx
+++ b/config/fm_기능정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63968BB1-06FD-4C98-AE9F-D83D7BFD8DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7599882-8CDF-4721-86C5-72E530AB676C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{312DCB01-3ECF-4BDB-BD2E-FB7916E44140}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>팩토리 모듈러에서 sql 문 삽입 가능하게 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +530,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -701,7 +697,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
